--- a/Templates/metabolic rate/6_template_metabolic_rate.xlsx
+++ b/Templates/metabolic rate/6_template_metabolic_rate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\doc\templates for data submission\metabolic rate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\GitHub\ShareTrait\Templates\metabolic rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7E4409-E313-455A-BEB9-5CC5AF4B7445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F5AA20-2DC1-45E7-B132-6F5C998F8252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="151">
   <si>
     <t>Column_name</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>Relevant notes about the timing of collection such as day, month, year, range of dates, etc</t>
+  </si>
+  <si>
+    <t>date_of_collection_final</t>
   </si>
 </sst>
 </file>
@@ -986,9 +989,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B6C100-C1FE-4195-9DE5-AB54BF1473C8}">
   <dimension ref="A1:BD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AY1" sqref="AY1:AY1048576"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,7 +1049,7 @@
         <v>81</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="S1" s="29" t="s">
         <v>26</v>
@@ -1172,9 +1175,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DC1DE2-1697-41FF-BBB2-1481FE9D25B2}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,7 +1446,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>100</v>
